--- a/KahootBlank-JacTobias.xlsx
+++ b/KahootBlank-JacTobias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EAF074E-673F-4A92-B302-F84507C89947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822FB861-A40B-4244-8C89-19F2D0401CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="-530" windowWidth="19240" windowHeight="11490" tabRatio="338" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Quiz template</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>1,3</t>
+  </si>
+  <si>
+    <t>To call the BusinessAccount print method instead of the Savings Account print method</t>
+  </si>
+  <si>
+    <t>To create the BusinessAccount class</t>
   </si>
 </sst>
 </file>
@@ -852,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1130,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="55.5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:27" ht="92.5" x14ac:dyDescent="0.5">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -1140,7 +1146,9 @@
       <c r="E9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="14">
         <v>10</v>
       </c>
@@ -1228,7 +1236,9 @@
       <c r="E11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="19">
         <v>10</v>
       </c>

--- a/KahootBlank-JacTobias.xlsx
+++ b/KahootBlank-JacTobias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\QC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\KJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822FB861-A40B-4244-8C89-19F2D0401CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F95B16-8F54-4F97-AAC8-0311D4891735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="-530" windowWidth="19240" windowHeight="11490" tabRatio="338" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,12 +101,6 @@
     <t>What was the purpose of overriding the print method in Lab 7?</t>
   </si>
   <si>
-    <t>To call the Savings Account print method instead of the Bank Account method</t>
-  </si>
-  <si>
-    <t>To call the Bank Account print method instead of the Savings Account print method</t>
-  </si>
-  <si>
     <t>No purpose, just followed the directions in the lab</t>
   </si>
   <si>
@@ -128,17 +122,23 @@
     <t>1,3</t>
   </si>
   <si>
-    <t>To call the BusinessAccount print method instead of the Savings Account print method</t>
+    <t>To create the BusinessAccount class</t>
   </si>
   <si>
-    <t>To create the BusinessAccount class</t>
+    <t>To call print method in BankAccount instead of SavingAccount</t>
+  </si>
+  <si>
+    <t>To call print method in SavingAccount instead of Bankaccount</t>
+  </si>
+  <si>
+    <t>To call print method in BusinessAccount instead of SavingAccount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -215,6 +215,12 @@
       <name val="Montserrat"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Montserrat"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -260,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -300,6 +306,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1139,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="92.5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:27" ht="55.5" x14ac:dyDescent="0.5">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -1138,16 +1147,16 @@
         <v>21</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>31</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="G9" s="14">
         <v>10</v>
@@ -1237,13 +1246,13 @@
         <v>19</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" s="19">
         <v>10</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1270,19 +1279,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="E12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="F12" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="G12" s="19">
         <v>10</v>
@@ -5071,14 +5080,14 @@
       <formula>LEN(B9)&gt;120</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9 C20:F108 C14:E14 F15">
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>LEN(C9)&gt;75</formula>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>LEN(B14)&gt;120</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>LEN(B14)&gt;120</formula>
+  <conditionalFormatting sqref="C9:F9 C14:E14 F15 C20:F108">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>LEN(C9)&gt;75</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/KahootBlank-JacTobias.xlsx
+++ b/KahootBlank-JacTobias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\KJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F95B16-8F54-4F97-AAC8-0311D4891735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8254A7-D948-4B8A-888F-C9C190E82563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="-530" windowWidth="19240" windowHeight="11490" tabRatio="338" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
